--- a/results/mp/deberta/corona/confidence/84/stop-words-topk-desired-masking-0.2/avg_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-topk-desired-masking-0.2/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="901">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="901">
   <si>
     <t>anchor score</t>
   </si>
@@ -253,577 +253,577 @@
     <t>share</t>
   </si>
   <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>threatening</t>
+  </si>
+  <si>
+    <t>expose</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>warned</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>trash</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>wasted</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>deadly</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>hardship</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>threats</t>
+  </si>
+  <si>
+    <t>complaint</t>
+  </si>
+  <si>
+    <t>idiot</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>congress</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>course</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>damn</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>feels</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>trading</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>slash</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>inflated</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>consider</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>rolls</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>everything</t>
+  </si>
+  <si>
+    <t>cure</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>trends</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>eco</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>milk</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>banks</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>take</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>threatening</t>
-  </si>
-  <si>
-    <t>expose</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>warned</t>
-  </si>
-  <si>
-    <t>critical</t>
-  </si>
-  <si>
-    <t>trash</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>wasted</t>
-  </si>
-  <si>
-    <t>shame</t>
+    <t>heroes</t>
   </si>
   <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>deadly</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>hardship</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>threats</t>
-  </si>
-  <si>
-    <t>complaint</t>
-  </si>
-  <si>
-    <t>idiot</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>congress</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>course</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>damn</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>feels</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>trading</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>slash</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>inflated</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>consider</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>non</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>rolls</t>
-  </si>
-  <si>
-    <t>tests</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>everything</t>
-  </si>
-  <si>
-    <t>cure</t>
-  </si>
-  <si>
-    <t>life</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>rt</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>trends</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>eco</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>others</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>milk</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>banks</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>full</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>take</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>heroes</t>
   </si>
   <si>
     <t>better</t>
@@ -3082,10 +3082,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3214,7 +3214,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K4">
         <v>0.8976377952755905</v>
@@ -3264,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K5">
         <v>0.8793103448275862</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K6">
         <v>0.8532110091743119</v>
@@ -3364,7 +3364,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K7">
         <v>0.851063829787234</v>
@@ -3414,7 +3414,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K8">
         <v>0.85</v>
@@ -3514,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K10">
         <v>0.8141025641025641</v>
@@ -3564,7 +3564,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K11">
         <v>0.8085106382978723</v>
@@ -3614,28 +3614,28 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K12">
-        <v>0.762114537444934</v>
+        <v>0.7528089887640449</v>
       </c>
       <c r="L12">
-        <v>173</v>
+        <v>67</v>
       </c>
       <c r="M12">
-        <v>185</v>
+        <v>72</v>
       </c>
       <c r="N12">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="O12">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P12" t="b">
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>54</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3664,28 +3664,28 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K13">
-        <v>0.7528089887640449</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L13">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="M13">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="N13">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="O13">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P13" t="b">
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3714,28 +3714,28 @@
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>78</v>
+        <v>267</v>
       </c>
       <c r="K14">
-        <v>0.7272727272727273</v>
+        <v>0.7238493723849372</v>
       </c>
       <c r="L14">
-        <v>48</v>
+        <v>173</v>
       </c>
       <c r="M14">
-        <v>52</v>
+        <v>173</v>
       </c>
       <c r="N14">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>18</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -3764,7 +3764,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K15">
         <v>0.7192982456140351</v>
@@ -3814,7 +3814,7 @@
         <v>2</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K16">
         <v>0.6950354609929078</v>
@@ -3864,7 +3864,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K17">
         <v>0.6888888888888889</v>
@@ -3914,28 +3914,28 @@
         <v>5</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>90</v>
+        <v>268</v>
       </c>
       <c r="K18">
-        <v>0.6820987654320988</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L18">
-        <v>221</v>
+        <v>32</v>
       </c>
       <c r="M18">
-        <v>237</v>
+        <v>32</v>
       </c>
       <c r="N18">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>103</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -3964,28 +3964,28 @@
         <v>2</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>269</v>
+        <v>93</v>
       </c>
       <c r="K19">
-        <v>0.6808510638297872</v>
+        <v>0.6705882352941176</v>
       </c>
       <c r="L19">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="M19">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -4014,28 +4014,28 @@
         <v>5</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>95</v>
+        <v>269</v>
       </c>
       <c r="K20">
-        <v>0.6705882352941176</v>
+        <v>0.65</v>
       </c>
       <c r="L20">
-        <v>57</v>
+        <v>221</v>
       </c>
       <c r="M20">
-        <v>61</v>
+        <v>221</v>
       </c>
       <c r="N20">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>28</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -4164,7 +4164,7 @@
         <v>3</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K23">
         <v>0.5238095238095238</v>
@@ -4214,7 +4214,7 @@
         <v>2</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K24">
         <v>0.5</v>
@@ -4264,7 +4264,7 @@
         <v>6</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K25">
         <v>0.4746835443037974</v>
@@ -4314,7 +4314,7 @@
         <v>6</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K26">
         <v>0.4736842105263158</v>
@@ -4464,7 +4464,7 @@
         <v>8</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K29">
         <v>0.4696969696969697</v>
@@ -4514,7 +4514,7 @@
         <v>2</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K30">
         <v>0.4691358024691358</v>
@@ -4614,7 +4614,7 @@
         <v>3</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K32">
         <v>0.4375</v>
@@ -4814,7 +4814,7 @@
         <v>5</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K36">
         <v>0.425531914893617</v>
@@ -4914,7 +4914,7 @@
         <v>3</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K38">
         <v>0.4210526315789473</v>
@@ -4964,7 +4964,7 @@
         <v>12</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K39">
         <v>0.4181818181818182</v>
@@ -5114,7 +5114,7 @@
         <v>3</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K42">
         <v>0.4008264462809917</v>
@@ -5164,7 +5164,7 @@
         <v>259</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K43">
         <v>0.3975155279503105</v>
@@ -5314,7 +5314,7 @@
         <v>7</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K46">
         <v>0.382716049382716</v>
@@ -5364,7 +5364,7 @@
         <v>5</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K47">
         <v>0.3757961783439491</v>
@@ -5564,7 +5564,7 @@
         <v>6</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K51">
         <v>0.3695652173913043</v>
@@ -5664,7 +5664,7 @@
         <v>4</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K53">
         <v>0.3666666666666666</v>
@@ -5714,7 +5714,7 @@
         <v>6</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K54">
         <v>0.34375</v>
@@ -6064,7 +6064,7 @@
         <v>14</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K61">
         <v>0.3325123152709359</v>
@@ -6164,7 +6164,7 @@
         <v>41</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K63">
         <v>0.3214285714285715</v>
@@ -6364,7 +6364,7 @@
         <v>27</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K67">
         <v>0.3109756097560976</v>
@@ -6464,7 +6464,7 @@
         <v>4</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K69">
         <v>0.3055555555555556</v>
@@ -6614,7 +6614,7 @@
         <v>22</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K72">
         <v>0.3042986425339366</v>
@@ -6693,28 +6693,28 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1818181818181818</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="C74">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D74">
-        <v>185</v>
+        <v>4</v>
       </c>
       <c r="E74">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K74">
         <v>0.2962962962962963</v>
@@ -6743,13 +6743,13 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1739130434782609</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C75">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D75">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -6761,7 +6761,7 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>301</v>
@@ -6814,7 +6814,7 @@
         <v>5</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K76">
         <v>0.2934782608695652</v>
@@ -6843,28 +6843,28 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1666666666666667</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K77">
         <v>0.2888888888888889</v>
@@ -6893,25 +6893,25 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1578947368421053</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78">
-        <v>96</v>
+        <v>2</v>
       </c>
       <c r="E78">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>302</v>
@@ -6946,10 +6946,10 @@
         <v>0.1538461538461539</v>
       </c>
       <c r="C79">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -6961,10 +6961,10 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K79">
         <v>0.2875816993464052</v>
@@ -6993,13 +6993,13 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1538461538461539</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C80">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D80">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -7011,7 +7011,7 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>303</v>
@@ -7046,25 +7046,25 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K81">
         <v>0.2857142857142857</v>
@@ -7096,22 +7096,22 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D82">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="E82">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>304</v>
@@ -7143,13 +7143,13 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.1428571428571428</v>
+        <v>0.1351351351351351</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -7161,7 +7161,7 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>305</v>
@@ -7193,13 +7193,13 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.1351351351351351</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="C84">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -7211,7 +7211,7 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>306</v>
@@ -7243,28 +7243,28 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.134453781512605</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="C85">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D85">
-        <v>237</v>
+        <v>4</v>
       </c>
       <c r="E85">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K85">
         <v>0.2820224719101124</v>
@@ -7293,25 +7293,25 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.1333333333333333</v>
+        <v>0.1313131313131313</v>
       </c>
       <c r="C86">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D86">
-        <v>2</v>
+        <v>209</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>307</v>
@@ -7343,7 +7343,7 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1333333333333333</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="C87">
         <v>4</v>
@@ -7361,10 +7361,10 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K87">
         <v>0.2792792792792793</v>
@@ -7393,25 +7393,25 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.1313131313131313</v>
+        <v>0.125</v>
       </c>
       <c r="C88">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D88">
-        <v>209</v>
+        <v>61</v>
       </c>
       <c r="E88">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F88">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G88" t="b">
         <v>1</v>
       </c>
       <c r="H88">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>308</v>
@@ -7443,28 +7443,28 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1290322580645161</v>
+        <v>0.125</v>
       </c>
       <c r="C89">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D89">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K89">
         <v>0.2751091703056768</v>
@@ -7496,22 +7496,22 @@
         <v>0.125</v>
       </c>
       <c r="C90">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D90">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="E90">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H90">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>309</v>
@@ -7543,28 +7543,28 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.125</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D91">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="E91">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F91">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G91" t="b">
         <v>1</v>
       </c>
       <c r="H91">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K91">
         <v>0.2723004694835681</v>
@@ -7593,13 +7593,13 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.125</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -7611,10 +7611,10 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K92">
         <v>0.2698412698412698</v>
@@ -7643,25 +7643,25 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.1212121212121212</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C93">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D93">
-        <v>131</v>
+        <v>2</v>
       </c>
       <c r="E93">
-        <v>0.97</v>
+        <v>0.5</v>
       </c>
       <c r="F93">
-        <v>0.03000000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
       </c>
       <c r="H93">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>310</v>
@@ -7693,13 +7693,13 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1176470588235294</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C94">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D94">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -7711,10 +7711,10 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K94">
         <v>0.2692307692307692</v>
@@ -7743,28 +7743,28 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1111111111111111</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D95">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E95">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K95">
         <v>0.267175572519084</v>
@@ -7793,13 +7793,13 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.1111111111111111</v>
+        <v>0.1</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -7811,10 +7811,10 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K96">
         <v>0.2666666666666667</v>
@@ -7843,7 +7843,7 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.1052631578947368</v>
+        <v>0.1</v>
       </c>
       <c r="C97">
         <v>4</v>
@@ -7861,7 +7861,7 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>311</v>
@@ -7896,10 +7896,10 @@
         <v>0.1</v>
       </c>
       <c r="C98">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D98">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>312</v>
@@ -7946,10 +7946,10 @@
         <v>0.1</v>
       </c>
       <c r="C99">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D99">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -7961,7 +7961,7 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>313</v>
@@ -8014,7 +8014,7 @@
         <v>9</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K100">
         <v>0.2592592592592592</v>
@@ -8043,25 +8043,25 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.1</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F101">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>314</v>
@@ -8093,7 +8093,7 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>315</v>
@@ -8143,25 +8143,25 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.09523809523809523</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D103">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E103">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F103">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H103">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>316</v>
@@ -8199,16 +8199,16 @@
         <v>1</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F104">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H104">
         <v>10</v>
@@ -8293,28 +8293,28 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.09090909090909091</v>
+        <v>0.08860759493670886</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D106">
-        <v>2</v>
+        <v>311</v>
       </c>
       <c r="E106">
-        <v>0.5</v>
+        <v>0.98</v>
       </c>
       <c r="F106">
-        <v>0.5</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G106" t="b">
         <v>1</v>
       </c>
       <c r="H106">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K106">
         <v>0.25</v>
@@ -8343,13 +8343,13 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -8361,7 +8361,7 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>319</v>
@@ -8393,25 +8393,25 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.08860759493670886</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C108">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D108">
-        <v>311</v>
+        <v>4</v>
       </c>
       <c r="E108">
-        <v>0.98</v>
+        <v>0.75</v>
       </c>
       <c r="F108">
-        <v>0.02000000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="G108" t="b">
         <v>1</v>
       </c>
       <c r="H108">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>320</v>
@@ -8446,22 +8446,22 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="C109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D109">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F109">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H109">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>321</v>
@@ -8493,25 +8493,25 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.08333333333333333</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D110">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E110">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="F110">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G110" t="b">
         <v>1</v>
       </c>
       <c r="H110">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>322</v>
@@ -8543,25 +8543,25 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.08333333333333333</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C111">
         <v>1</v>
       </c>
       <c r="D111">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E111">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H111">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>323</v>
@@ -8593,28 +8593,28 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.07692307692307693</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D112">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E112">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="F112">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="G112" t="b">
         <v>1</v>
       </c>
       <c r="H112">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K112">
         <v>0.2478134110787172</v>
@@ -8643,7 +8643,7 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.07692307692307693</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -8661,10 +8661,10 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K113">
         <v>0.2465753424657534</v>
@@ -8696,25 +8696,25 @@
         <v>0.07142857142857142</v>
       </c>
       <c r="C114">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D114">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="E114">
-        <v>0.67</v>
+        <v>0.84</v>
       </c>
       <c r="F114">
-        <v>0.33</v>
+        <v>0.16</v>
       </c>
       <c r="G114" t="b">
         <v>1</v>
       </c>
       <c r="H114">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K114">
         <v>0.24</v>
@@ -8749,16 +8749,16 @@
         <v>1</v>
       </c>
       <c r="D115">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="F115">
-        <v>1</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H115">
         <v>13</v>
@@ -8793,28 +8793,28 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C116">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D116">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="E116">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>0.16</v>
+        <v>1</v>
       </c>
       <c r="G116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H116">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K116">
         <v>0.24</v>
@@ -8843,28 +8843,28 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
       <c r="D117">
-        <v>115</v>
+        <v>4</v>
       </c>
       <c r="E117">
-        <v>0.99</v>
+        <v>0.75</v>
       </c>
       <c r="F117">
-        <v>0.01000000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="G117" t="b">
         <v>1</v>
       </c>
       <c r="H117">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K117">
         <v>0.2398753894080997</v>
@@ -8914,7 +8914,7 @@
         <v>14</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K118">
         <v>0.2393162393162393</v>
@@ -8949,13 +8949,13 @@
         <v>1</v>
       </c>
       <c r="D119">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E119">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F119">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G119" t="b">
         <v>1</v>
@@ -8964,7 +8964,7 @@
         <v>14</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K119">
         <v>0.2374756018217306</v>
@@ -8999,16 +8999,16 @@
         <v>1</v>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F120">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H120">
         <v>14</v>
@@ -9043,25 +9043,25 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C121">
         <v>1</v>
       </c>
       <c r="D121">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E121">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F121">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G121" t="b">
         <v>1</v>
       </c>
       <c r="H121">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>326</v>
@@ -9093,25 +9093,25 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C122">
         <v>1</v>
       </c>
       <c r="D122">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="E122">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F122">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H122">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>327</v>
@@ -9146,22 +9146,22 @@
         <v>0.0625</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D123">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="E123">
-        <v>0.75</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F123">
-        <v>0.25</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G123" t="b">
         <v>1</v>
       </c>
       <c r="H123">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>328</v>
@@ -9193,7 +9193,7 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -9211,7 +9211,7 @@
         <v>0</v>
       </c>
       <c r="H124">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>329</v>
@@ -9243,25 +9243,25 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D125">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E125">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="F125">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G125" t="b">
         <v>1</v>
       </c>
       <c r="H125">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>330</v>
@@ -9296,22 +9296,22 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="C126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D126">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F126">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H126">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>331</v>
@@ -9349,22 +9349,22 @@
         <v>1</v>
       </c>
       <c r="D127">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="E127">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F127">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H127">
         <v>16</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K127">
         <v>0.2291666666666667</v>
@@ -9393,28 +9393,28 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.05882352941176471</v>
+        <v>0.05701754385964912</v>
       </c>
       <c r="C128">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D128">
-        <v>25</v>
+        <v>203</v>
       </c>
       <c r="E128">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F128">
-        <v>0.07999999999999996</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G128" t="b">
         <v>1</v>
       </c>
       <c r="H128">
-        <v>32</v>
+        <v>215</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K128">
         <v>0.2272727272727273</v>
@@ -9443,7 +9443,7 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -9461,10 +9461,10 @@
         <v>0</v>
       </c>
       <c r="H129">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K129">
         <v>0.2230088495575221</v>
@@ -9493,25 +9493,25 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.05701754385964912</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C130">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D130">
-        <v>203</v>
+        <v>1</v>
       </c>
       <c r="E130">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F130">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H130">
-        <v>215</v>
+        <v>17</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>332</v>
@@ -9549,16 +9549,16 @@
         <v>1</v>
       </c>
       <c r="D131">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F131">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H131">
         <v>17</v>
@@ -9599,16 +9599,16 @@
         <v>1</v>
       </c>
       <c r="D132">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F132">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H132">
         <v>17</v>
@@ -9643,25 +9643,25 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C133">
         <v>1</v>
       </c>
       <c r="D133">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E133">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F133">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H133">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>335</v>
@@ -9693,25 +9693,25 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C134">
         <v>1</v>
       </c>
       <c r="D134">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E134">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="F134">
-        <v>0.2</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G134" t="b">
         <v>1</v>
       </c>
       <c r="H134">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>336</v>
@@ -9749,22 +9749,22 @@
         <v>1</v>
       </c>
       <c r="D135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F135">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H135">
         <v>18</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K135">
         <v>0.2197076850542197</v>
@@ -9799,16 +9799,16 @@
         <v>1</v>
       </c>
       <c r="D136">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E136">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F136">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H136">
         <v>18</v>
@@ -9843,25 +9843,25 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.05263157894736842</v>
+        <v>0.05172413793103448</v>
       </c>
       <c r="C137">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D137">
-        <v>2</v>
+        <v>105</v>
       </c>
       <c r="E137">
-        <v>0.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F137">
-        <v>0.5</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G137" t="b">
         <v>1</v>
       </c>
       <c r="H137">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>338</v>
@@ -9893,13 +9893,13 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.05263157894736842</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="C138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -9911,10 +9911,10 @@
         <v>0</v>
       </c>
       <c r="H138">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K138">
         <v>0.2169811320754717</v>
@@ -9943,25 +9943,25 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.05172413793103448</v>
+        <v>0.05</v>
       </c>
       <c r="C139">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D139">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="E139">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F139">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G139" t="b">
         <v>1</v>
       </c>
       <c r="H139">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>339</v>
@@ -9993,25 +9993,25 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.05128205128205128</v>
+        <v>0.05</v>
       </c>
       <c r="C140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D140">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F140">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H140">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>340</v>
@@ -10046,22 +10046,22 @@
         <v>0.05</v>
       </c>
       <c r="C141">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D141">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="E141">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F141">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G141" t="b">
         <v>1</v>
       </c>
       <c r="H141">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>341</v>
@@ -10099,13 +10099,13 @@
         <v>1</v>
       </c>
       <c r="D142">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E142">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F142">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G142" t="b">
         <v>1</v>
@@ -10114,7 +10114,7 @@
         <v>19</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K142">
         <v>0.2142857142857143</v>
@@ -10143,25 +10143,25 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C143">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D143">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="E143">
-        <v>0.89</v>
+        <v>0.75</v>
       </c>
       <c r="F143">
-        <v>0.11</v>
+        <v>0.25</v>
       </c>
       <c r="G143" t="b">
         <v>1</v>
       </c>
       <c r="H143">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>342</v>
@@ -10193,25 +10193,25 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C144">
         <v>1</v>
       </c>
       <c r="D144">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E144">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="F144">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="G144" t="b">
         <v>1</v>
       </c>
       <c r="H144">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>343</v>
@@ -10243,25 +10243,25 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D145">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E145">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="F145">
-        <v>0.25</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G145" t="b">
         <v>1</v>
       </c>
       <c r="H145">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>344</v>
@@ -10293,25 +10293,25 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C146">
         <v>1</v>
       </c>
       <c r="D146">
-        <v>8</v>
+        <v>121</v>
       </c>
       <c r="E146">
-        <v>0.88</v>
+        <v>0.99</v>
       </c>
       <c r="F146">
-        <v>0.12</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G146" t="b">
         <v>1</v>
       </c>
       <c r="H146">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>345</v>
@@ -10343,25 +10343,25 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C147">
         <v>1</v>
       </c>
       <c r="D147">
+        <v>2</v>
+      </c>
+      <c r="E147">
+        <v>0.5</v>
+      </c>
+      <c r="F147">
+        <v>0.5</v>
+      </c>
+      <c r="G147" t="b">
+        <v>1</v>
+      </c>
+      <c r="H147">
         <v>22</v>
-      </c>
-      <c r="E147">
-        <v>0.95</v>
-      </c>
-      <c r="F147">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="G147" t="b">
-        <v>1</v>
-      </c>
-      <c r="H147">
-        <v>21</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>346</v>
@@ -10393,25 +10393,25 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C148">
         <v>1</v>
       </c>
       <c r="D148">
-        <v>121</v>
+        <v>4</v>
       </c>
       <c r="E148">
-        <v>0.99</v>
+        <v>0.75</v>
       </c>
       <c r="F148">
-        <v>0.01000000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="G148" t="b">
         <v>1</v>
       </c>
       <c r="H148">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>347</v>
@@ -10464,7 +10464,7 @@
         <v>22</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K149">
         <v>0.2096774193548387</v>
@@ -10499,16 +10499,16 @@
         <v>1</v>
       </c>
       <c r="D150">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E150">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F150">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H150">
         <v>22</v>
@@ -10543,25 +10543,25 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.04347826086956522</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="C151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D151">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E151">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="F151">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G151" t="b">
         <v>1</v>
       </c>
       <c r="H151">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>349</v>
@@ -10593,25 +10593,25 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.04347826086956522</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="C152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D152">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F152">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="G152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H152">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>350</v>
@@ -10643,28 +10643,28 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.0425531914893617</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D153">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E153">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="F153">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
       </c>
       <c r="H153">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K153">
         <v>0.20625</v>
@@ -10693,25 +10693,25 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.0425531914893617</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C154">
         <v>2</v>
       </c>
       <c r="D154">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E154">
-        <v>0.6</v>
+        <v>0.89</v>
       </c>
       <c r="F154">
-        <v>0.4</v>
+        <v>0.11</v>
       </c>
       <c r="G154" t="b">
         <v>1</v>
       </c>
       <c r="H154">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>351</v>
@@ -10743,25 +10743,25 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C155">
         <v>1</v>
       </c>
       <c r="D155">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E155">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F155">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>352</v>
@@ -10793,25 +10793,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.04166666666666666</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D156">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E156">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="F156">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="G156" t="b">
         <v>1</v>
       </c>
       <c r="H156">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>353</v>
@@ -10843,25 +10843,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.04</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
       <c r="D157">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E157">
-        <v>0.67</v>
+        <v>0.91</v>
       </c>
       <c r="F157">
-        <v>0.33</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G157" t="b">
         <v>1</v>
       </c>
       <c r="H157">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>354</v>
@@ -10893,25 +10893,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C158">
         <v>1</v>
       </c>
       <c r="D158">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E158">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="F158">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>355</v>
@@ -10943,25 +10943,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
       <c r="D159">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E159">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F159">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H159">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>356</v>
@@ -10993,7 +10993,7 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -11011,7 +11011,7 @@
         <v>1</v>
       </c>
       <c r="H160">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>357</v>
@@ -11043,25 +11043,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C161">
         <v>1</v>
       </c>
       <c r="D161">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F161">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H161">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>358</v>
@@ -11093,25 +11093,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.03571428571428571</v>
+        <v>0.03558718861209965</v>
       </c>
       <c r="C162">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D162">
-        <v>2</v>
+        <v>145</v>
       </c>
       <c r="E162">
-        <v>0.5</v>
+        <v>0.93</v>
       </c>
       <c r="F162">
-        <v>0.5</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
       </c>
       <c r="H162">
-        <v>27</v>
+        <v>271</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>359</v>
@@ -11143,13 +11143,13 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.03571428571428571</v>
+        <v>0.03508771929824561</v>
       </c>
       <c r="C163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D163">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="E163">
         <v>0.95</v>
@@ -11161,7 +11161,7 @@
         <v>1</v>
       </c>
       <c r="H163">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>360</v>
@@ -11193,25 +11193,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.03558718861209965</v>
+        <v>0.03488372093023256</v>
       </c>
       <c r="C164">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D164">
-        <v>145</v>
+        <v>26</v>
       </c>
       <c r="E164">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="F164">
-        <v>0.06999999999999995</v>
+        <v>0.12</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
       </c>
       <c r="H164">
-        <v>271</v>
+        <v>83</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>74</v>
@@ -11243,25 +11243,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.03508771929824561</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D165">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="E165">
-        <v>0.95</v>
+        <v>0.67</v>
       </c>
       <c r="F165">
-        <v>0.05000000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>361</v>
@@ -11293,25 +11293,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.03488372093023256</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C166">
         <v>3</v>
       </c>
       <c r="D166">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="E166">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F166">
-        <v>0.12</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>362</v>
@@ -11343,25 +11343,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.03448275862068965</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
       <c r="D167">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E167">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F167">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G167" t="b">
         <v>1</v>
       </c>
       <c r="H167">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>363</v>
@@ -11393,13 +11393,13 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.03448275862068965</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C168">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D168">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="E168">
         <v>0.9399999999999999</v>
@@ -11411,10 +11411,10 @@
         <v>1</v>
       </c>
       <c r="H168">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K168">
         <v>0.1904761904761905</v>
@@ -11443,7 +11443,7 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.03333333333333333</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C169">
         <v>1</v>
@@ -11461,10 +11461,10 @@
         <v>1</v>
       </c>
       <c r="H169">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K169">
         <v>0.1893939393939394</v>
@@ -11493,25 +11493,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.03333333333333333</v>
+        <v>0.03053435114503817</v>
       </c>
       <c r="C170">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D170">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E170">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="F170">
-        <v>0.06000000000000005</v>
+        <v>0.11</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>364</v>
@@ -11543,25 +11543,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.03225806451612903</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D171">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E171">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F171">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>365</v>
@@ -11593,28 +11593,28 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.03053435114503817</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C172">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D172">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="E172">
-        <v>0.89</v>
+        <v>0.5</v>
       </c>
       <c r="F172">
-        <v>0.11</v>
+        <v>0.5</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K172">
         <v>0.1846153846153846</v>
@@ -11646,25 +11646,25 @@
         <v>0.0303030303030303</v>
       </c>
       <c r="C173">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D173">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="E173">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="F173">
-        <v>0.33</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K173">
         <v>0.1836734693877551</v>
@@ -11696,22 +11696,22 @@
         <v>0.0303030303030303</v>
       </c>
       <c r="C174">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D174">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E174">
-        <v>0.5</v>
+        <v>0.87</v>
       </c>
       <c r="F174">
-        <v>0.5</v>
+        <v>0.13</v>
       </c>
       <c r="G174" t="b">
         <v>1</v>
       </c>
       <c r="H174">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>366</v>
@@ -11743,28 +11743,28 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.0303030303030303</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C175">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D175">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="E175">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="F175">
-        <v>0.07999999999999996</v>
+        <v>0.14</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="J175" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K175">
         <v>0.1830985915492958</v>
@@ -11793,25 +11793,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.0303030303030303</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D176">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E176">
-        <v>0.87</v>
+        <v>0.97</v>
       </c>
       <c r="F176">
-        <v>0.13</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
       </c>
       <c r="H176">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>367</v>
@@ -11843,25 +11843,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.02777777777777778</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C177">
         <v>1</v>
       </c>
       <c r="D177">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E177">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="F177">
-        <v>0.14</v>
+        <v>0.33</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>368</v>
@@ -11893,25 +11893,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.02777777777777778</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D178">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="E178">
-        <v>0.97</v>
+        <v>0.75</v>
       </c>
       <c r="F178">
-        <v>0.03000000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
       </c>
       <c r="H178">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>369</v>
@@ -11943,28 +11943,28 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.02702702702702703</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C179">
         <v>1</v>
       </c>
       <c r="D179">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E179">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="F179">
-        <v>0.33</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J179" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K179">
         <v>0.1818181818181818</v>
@@ -11993,25 +11993,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.02631578947368421</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D180">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E180">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F180">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>370</v>
@@ -12043,25 +12043,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.02631578947368421</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
       <c r="D181">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E181">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F181">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H181">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>371</v>
@@ -12099,13 +12099,13 @@
         <v>1</v>
       </c>
       <c r="D182">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E182">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F182">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
@@ -12146,22 +12146,22 @@
         <v>0.02564102564102564</v>
       </c>
       <c r="C183">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D183">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F183">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H183">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>373</v>
@@ -12199,13 +12199,13 @@
         <v>1</v>
       </c>
       <c r="D184">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E184">
-        <v>0.8</v>
+        <v>0.96</v>
       </c>
       <c r="F184">
-        <v>0.2</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
@@ -12246,22 +12246,22 @@
         <v>0.02564102564102564</v>
       </c>
       <c r="C185">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D185">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="E185">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F185">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H185">
-        <v>152</v>
+        <v>38</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>375</v>
@@ -12293,25 +12293,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.02564102564102564</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C186">
         <v>1</v>
       </c>
       <c r="D186">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E186">
-        <v>0.96</v>
+        <v>0.5</v>
       </c>
       <c r="F186">
-        <v>0.04000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>376</v>
@@ -12343,7 +12343,7 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.02564102564102564</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C187">
         <v>1</v>
@@ -12361,10 +12361,10 @@
         <v>0</v>
       </c>
       <c r="H187">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J187" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K187">
         <v>0.1774193548387097</v>
@@ -12399,13 +12399,13 @@
         <v>1</v>
       </c>
       <c r="D188">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E188">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="F188">
-        <v>0.5</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
@@ -12443,25 +12443,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.02439024390243903</v>
+        <v>0.024</v>
       </c>
       <c r="C189">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D189">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F189">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H189">
-        <v>40</v>
+        <v>244</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>378</v>
@@ -12493,28 +12493,28 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.02439024390243903</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
       <c r="D190">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E190">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="F190">
-        <v>0.09999999999999998</v>
+        <v>0.25</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J190" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K190">
         <v>0.1764705882352941</v>
@@ -12543,13 +12543,13 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.024</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="C191">
         <v>6</v>
       </c>
       <c r="D191">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E191">
         <v>0.93</v>
@@ -12561,7 +12561,7 @@
         <v>1</v>
       </c>
       <c r="H191">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>379</v>
@@ -12593,28 +12593,28 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.02380952380952381</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
       <c r="D192">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E192">
-        <v>0.75</v>
+        <v>0.89</v>
       </c>
       <c r="F192">
-        <v>0.25</v>
+        <v>0.11</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J192" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K192">
         <v>0.176</v>
@@ -12643,25 +12643,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.02272727272727273</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C193">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D193">
-        <v>91</v>
+        <v>4</v>
       </c>
       <c r="E193">
-        <v>0.93</v>
+        <v>0.75</v>
       </c>
       <c r="F193">
-        <v>0.06999999999999995</v>
+        <v>0.25</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>258</v>
+        <v>44</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>380</v>
@@ -12693,28 +12693,28 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.02222222222222222</v>
+        <v>0.02197802197802198</v>
       </c>
       <c r="C194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D194">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E194">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="F194">
-        <v>0.11</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="J194" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K194">
         <v>0.1732283464566929</v>
@@ -12743,25 +12743,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.02222222222222222</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="C195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D195">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E195">
-        <v>0.75</v>
+        <v>0.89</v>
       </c>
       <c r="F195">
-        <v>0.25</v>
+        <v>0.11</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>381</v>
@@ -12793,25 +12793,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.02197802197802198</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C196">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D196">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="E196">
-        <v>0.93</v>
+        <v>0.75</v>
       </c>
       <c r="F196">
-        <v>0.06999999999999995</v>
+        <v>0.25</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>382</v>
@@ -12843,25 +12843,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.02150537634408602</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="C197">
         <v>2</v>
       </c>
       <c r="D197">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="E197">
-        <v>0.89</v>
+        <v>0.95</v>
       </c>
       <c r="F197">
-        <v>0.11</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>383</v>
@@ -12893,28 +12893,28 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.02127659574468085</v>
+        <v>0.0202020202020202</v>
       </c>
       <c r="C198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D198">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="E198">
-        <v>0.75</v>
+        <v>0.97</v>
       </c>
       <c r="F198">
-        <v>0.25</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="J198" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K198">
         <v>0.1688311688311688</v>
@@ -12943,28 +12943,28 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.02040816326530612</v>
+        <v>0.02013422818791946</v>
       </c>
       <c r="C199">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D199">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="E199">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F199">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H199">
-        <v>96</v>
+        <v>146</v>
       </c>
       <c r="J199" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K199">
         <v>0.1686046511627907</v>
@@ -12993,13 +12993,13 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.0202020202020202</v>
+        <v>0.02</v>
       </c>
       <c r="C200">
         <v>2</v>
       </c>
       <c r="D200">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E200">
         <v>0.97</v>
@@ -13011,7 +13011,7 @@
         <v>1</v>
       </c>
       <c r="H200">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>384</v>
@@ -13043,25 +13043,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.02013422818791946</v>
+        <v>0.02</v>
       </c>
       <c r="C201">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D201">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F201">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H201">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>385</v>
@@ -13096,22 +13096,22 @@
         <v>0.02</v>
       </c>
       <c r="C202">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D202">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="E202">
-        <v>0.97</v>
+        <v>0.89</v>
       </c>
       <c r="F202">
-        <v>0.03000000000000003</v>
+        <v>0.11</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>386</v>
@@ -13143,25 +13143,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.02</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E203">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F203">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>387</v>
@@ -13193,25 +13193,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.02</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E204">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="F204">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>388</v>
@@ -13249,13 +13249,13 @@
         <v>1</v>
       </c>
       <c r="D205">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E205">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F205">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
@@ -13264,7 +13264,7 @@
         <v>50</v>
       </c>
       <c r="J205" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K205">
         <v>0.1666666666666667</v>
@@ -13293,25 +13293,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.0196078431372549</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
       <c r="D206">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E206">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="F206">
-        <v>0.17</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>389</v>
@@ -13343,28 +13343,28 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.0196078431372549</v>
+        <v>0.01904761904761905</v>
       </c>
       <c r="C207">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D207">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E207">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="F207">
-        <v>0.03000000000000003</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="J207" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K207">
         <v>0.1666666666666667</v>
@@ -13393,13 +13393,13 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.01923076923076923</v>
+        <v>0.01869158878504673</v>
       </c>
       <c r="C208">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D208">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E208">
         <v>0.92</v>
@@ -13411,7 +13411,7 @@
         <v>1</v>
       </c>
       <c r="H208">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>390</v>
@@ -13443,13 +13443,13 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.01904761904761905</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D209">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E209">
         <v>0.92</v>
@@ -13461,7 +13461,7 @@
         <v>1</v>
       </c>
       <c r="H209">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>391</v>
@@ -13493,25 +13493,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.01869158878504673</v>
+        <v>0.01834862385321101</v>
       </c>
       <c r="C210">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D210">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="E210">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F210">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>105</v>
+        <v>535</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>392</v>
@@ -13543,25 +13543,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.01851851851851852</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E211">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F211">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G211" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H211">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>393</v>
@@ -13593,25 +13593,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.01834862385321101</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C212">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D212">
-        <v>115</v>
+        <v>1</v>
       </c>
       <c r="E212">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F212">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G212" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H212">
-        <v>535</v>
+        <v>55</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>394</v>
@@ -13643,25 +13643,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.01818181818181818</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E213">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F213">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G213" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H213">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>395</v>
@@ -13693,25 +13693,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.01785714285714286</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
       <c r="D214">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F214">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H214">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>396</v>
@@ -13743,25 +13743,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.01724137931034483</v>
+        <v>0.01692307692307692</v>
       </c>
       <c r="C215">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D215">
-        <v>2</v>
+        <v>262</v>
       </c>
       <c r="E215">
-        <v>0.5</v>
+        <v>0.96</v>
       </c>
       <c r="F215">
-        <v>0.5</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>57</v>
+        <v>639</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>397</v>
@@ -13793,25 +13793,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.01694915254237288</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="C216">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D216">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E216">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="F216">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>398</v>
@@ -13843,25 +13843,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.01692307692307692</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="C217">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D217">
-        <v>262</v>
+        <v>16</v>
       </c>
       <c r="E217">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="F217">
-        <v>0.04000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>639</v>
+        <v>122</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>399</v>
@@ -13893,25 +13893,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.01666666666666667</v>
+        <v>0.016</v>
       </c>
       <c r="C218">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D218">
-        <v>19</v>
+        <v>279</v>
       </c>
       <c r="E218">
-        <v>0.89</v>
+        <v>0.96</v>
       </c>
       <c r="F218">
-        <v>0.11</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>118</v>
+        <v>615</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>400</v>
@@ -13943,13 +13943,13 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.01612903225806452</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="C219">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D219">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E219">
         <v>0.88</v>
@@ -13961,7 +13961,7 @@
         <v>1</v>
       </c>
       <c r="H219">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>401</v>
@@ -13993,13 +13993,13 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.016</v>
+        <v>0.01388304585612116</v>
       </c>
       <c r="C220">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D220">
-        <v>279</v>
+        <v>763</v>
       </c>
       <c r="E220">
         <v>0.96</v>
@@ -14011,7 +14011,7 @@
         <v>1</v>
       </c>
       <c r="H220">
-        <v>615</v>
+        <v>2344</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>402</v>
@@ -14043,25 +14043,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.01449275362318841</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E221">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="F221">
-        <v>0.12</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>403</v>
@@ -14093,25 +14093,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.01388304585612116</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="C222">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="D222">
-        <v>763</v>
+        <v>1</v>
       </c>
       <c r="E222">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F222">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G222" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H222">
-        <v>2344</v>
+        <v>75</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>404</v>
@@ -14143,25 +14143,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.0136986301369863</v>
+        <v>0.01311866428145498</v>
       </c>
       <c r="C223">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D223">
-        <v>13</v>
+        <v>488</v>
       </c>
       <c r="E223">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="F223">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>72</v>
+        <v>1655</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>405</v>
@@ -14193,25 +14193,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.0131578947368421</v>
+        <v>0.0130718954248366</v>
       </c>
       <c r="C224">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D224">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F224">
-        <v>1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G224" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H224">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>406</v>
@@ -14243,25 +14243,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.01311866428145498</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="C225">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D225">
-        <v>488</v>
+        <v>12</v>
       </c>
       <c r="E225">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="F225">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>1655</v>
+        <v>77</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>407</v>
@@ -14293,25 +14293,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.0130718954248366</v>
+        <v>0.01273885350318471</v>
       </c>
       <c r="C226">
         <v>2</v>
       </c>
       <c r="D226">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="E226">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="F226">
-        <v>0.09999999999999998</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>408</v>
@@ -14343,25 +14343,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.01282051282051282</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="C227">
         <v>1</v>
       </c>
       <c r="D227">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E227">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="F227">
-        <v>0.07999999999999996</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>409</v>
@@ -14393,28 +14393,28 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.01273885350318471</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="C228">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D228">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="E228">
-        <v>0.97</v>
+        <v>0.83</v>
       </c>
       <c r="F228">
-        <v>0.03000000000000003</v>
+        <v>0.17</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="J228" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K228">
         <v>0.1653543307086614</v>
@@ -14443,28 +14443,28 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.01234567901234568</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="C229">
         <v>1</v>
       </c>
       <c r="D229">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="E229">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F229">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J229" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K229">
         <v>0.1640625</v>
@@ -14493,25 +14493,25 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.01234567901234568</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
       <c r="D230">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E230">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F230">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G230" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H230">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>410</v>
@@ -14543,25 +14543,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.0119047619047619</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
       <c r="D231">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="E231">
-        <v>0.99</v>
+        <v>0.75</v>
       </c>
       <c r="F231">
-        <v>0.01000000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>411</v>
@@ -14593,25 +14593,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.01111111111111111</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
       <c r="D232">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E232">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F232">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G232" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H232">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>412</v>
@@ -14643,25 +14643,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.0108695652173913</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="C233">
         <v>1</v>
       </c>
       <c r="D233">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E233">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F233">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>413</v>
@@ -14693,25 +14693,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.01030927835051546</v>
+        <v>0.01</v>
       </c>
       <c r="C234">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D234">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="E234">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="F234">
-        <v>0.25</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>96</v>
+        <v>198</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>414</v>
@@ -14743,28 +14743,28 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.0101010101010101</v>
+        <v>0.01</v>
       </c>
       <c r="C235">
         <v>1</v>
       </c>
       <c r="D235">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E235">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F235">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J235" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K235">
         <v>0.1602209944751381</v>
@@ -14793,13 +14793,13 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.01</v>
+        <v>0.009695290858725761</v>
       </c>
       <c r="C236">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D236">
-        <v>39</v>
+        <v>152</v>
       </c>
       <c r="E236">
         <v>0.95</v>
@@ -14811,7 +14811,7 @@
         <v>1</v>
       </c>
       <c r="H236">
-        <v>198</v>
+        <v>715</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>415</v>
@@ -14843,28 +14843,28 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.01</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
       <c r="D237">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E237">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F237">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="J237" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K237">
         <v>0.1584905660377358</v>
@@ -14893,13 +14893,13 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.009695290858725761</v>
+        <v>0.009345794392523364</v>
       </c>
       <c r="C238">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D238">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="E238">
         <v>0.95</v>
@@ -14911,7 +14911,7 @@
         <v>1</v>
       </c>
       <c r="H238">
-        <v>715</v>
+        <v>106</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>416</v>
@@ -14943,25 +14943,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.009433962264150943</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="C239">
         <v>1</v>
       </c>
       <c r="D239">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="E239">
-        <v>0.67</v>
+        <v>0.96</v>
       </c>
       <c r="F239">
-        <v>0.33</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>417</v>
@@ -14993,25 +14993,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.009345794392523364</v>
+        <v>0.00909090909090909</v>
       </c>
       <c r="C240">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D240">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="E240">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F240">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>106</v>
+        <v>218</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>418</v>
@@ -15043,28 +15043,28 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.009259259259259259</v>
+        <v>0.009009009009009009</v>
       </c>
       <c r="C241">
         <v>1</v>
       </c>
       <c r="D241">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E241">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F241">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G241" t="b">
         <v>1</v>
       </c>
       <c r="H241">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="J241" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K241">
         <v>0.1574468085106383</v>
@@ -15093,25 +15093,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.00909090909090909</v>
+        <v>0.008928571428571428</v>
       </c>
       <c r="C242">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D242">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="E242">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F242">
-        <v>0.02000000000000002</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>218</v>
+        <v>111</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>419</v>
@@ -15143,28 +15143,28 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.009009009009009009</v>
+        <v>0.008888888888888889</v>
       </c>
       <c r="C243">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D243">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E243">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F243">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G243" t="b">
         <v>1</v>
       </c>
       <c r="H243">
-        <v>110</v>
+        <v>223</v>
       </c>
       <c r="J243" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K243">
         <v>0.1538461538461539</v>
@@ -15193,25 +15193,25 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.008928571428571428</v>
+        <v>0.008771929824561403</v>
       </c>
       <c r="C244">
         <v>1</v>
       </c>
       <c r="D244">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="E244">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="F244">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G244" t="b">
         <v>1</v>
       </c>
       <c r="H244">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>420</v>
@@ -15243,25 +15243,25 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.008888888888888889</v>
+        <v>0.008042895442359249</v>
       </c>
       <c r="C245">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D245">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="E245">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F245">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G245" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H245">
-        <v>223</v>
+        <v>370</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>421</v>
@@ -15293,25 +15293,25 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.008771929824561403</v>
+        <v>0.007936507936507936</v>
       </c>
       <c r="C246">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D246">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="E246">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F246">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G246" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H246">
-        <v>113</v>
+        <v>250</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>422</v>
@@ -15343,25 +15343,25 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.008042895442359249</v>
+        <v>0.0078125</v>
       </c>
       <c r="C247">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D247">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E247">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F247">
-        <v>1</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G247" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H247">
-        <v>370</v>
+        <v>127</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>423</v>
@@ -15393,28 +15393,28 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.007936507936507936</v>
+        <v>0.006872852233676976</v>
       </c>
       <c r="C248">
         <v>2</v>
       </c>
       <c r="D248">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E248">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F248">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G248" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H248">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="J248" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K248">
         <v>0.1495327102803738</v>
@@ -15443,25 +15443,25 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.0078125</v>
+        <v>0.00684931506849315</v>
       </c>
       <c r="C249">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D249">
-        <v>11</v>
+        <v>196</v>
       </c>
       <c r="E249">
-        <v>0.91</v>
+        <v>0.99</v>
       </c>
       <c r="F249">
-        <v>0.08999999999999997</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G249" t="b">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>127</v>
+        <v>290</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>424</v>
@@ -15493,28 +15493,28 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.006872852233676976</v>
+        <v>0.006042296072507553</v>
       </c>
       <c r="C250">
         <v>2</v>
       </c>
       <c r="D250">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E250">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F250">
-        <v>0.12</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G250" t="b">
         <v>1</v>
       </c>
       <c r="H250">
-        <v>289</v>
+        <v>329</v>
       </c>
       <c r="J250" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K250">
         <v>0.1463414634146341</v>
@@ -15543,25 +15543,25 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.00684931506849315</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="C251">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D251">
-        <v>196</v>
+        <v>1</v>
       </c>
       <c r="E251">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F251">
-        <v>0.01000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G251" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H251">
-        <v>290</v>
+        <v>165</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>425</v>
@@ -15593,25 +15593,25 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.006042296072507553</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="C252">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D252">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="E252">
-        <v>0.9399999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="F252">
-        <v>0.06000000000000005</v>
+        <v>0.17</v>
       </c>
       <c r="G252" t="b">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>329</v>
+        <v>165</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>426</v>
@@ -15643,25 +15643,25 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.006024096385542169</v>
+        <v>0.005988023952095809</v>
       </c>
       <c r="C253">
         <v>1</v>
       </c>
       <c r="D253">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="E253">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F253">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G253" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H253">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>427</v>
@@ -15693,25 +15693,25 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.006024096385542169</v>
+        <v>0.005319148936170213</v>
       </c>
       <c r="C254">
         <v>1</v>
       </c>
       <c r="D254">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E254">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="F254">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G254" t="b">
         <v>1</v>
       </c>
       <c r="H254">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>428</v>
@@ -15743,13 +15743,13 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.005988023952095809</v>
+        <v>0.00453514739229025</v>
       </c>
       <c r="C255">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D255">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="E255">
         <v>0.98</v>
@@ -15761,7 +15761,7 @@
         <v>1</v>
       </c>
       <c r="H255">
-        <v>166</v>
+        <v>439</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>429</v>
@@ -15793,25 +15793,25 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.005319148936170213</v>
+        <v>0.003581020590868397</v>
       </c>
       <c r="C256">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D256">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="E256">
-        <v>0.5</v>
+        <v>0.92</v>
       </c>
       <c r="F256">
-        <v>0.5</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G256" t="b">
         <v>1</v>
       </c>
       <c r="H256">
-        <v>187</v>
+        <v>1113</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>430</v>
@@ -15843,28 +15843,28 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.00453514739229025</v>
+        <v>0.003436426116838488</v>
       </c>
       <c r="C257">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D257">
-        <v>128</v>
+        <v>3</v>
       </c>
       <c r="E257">
-        <v>0.98</v>
+        <v>0.67</v>
       </c>
       <c r="F257">
-        <v>0.02000000000000002</v>
+        <v>0.33</v>
       </c>
       <c r="G257" t="b">
         <v>1</v>
       </c>
       <c r="H257">
-        <v>439</v>
+        <v>290</v>
       </c>
       <c r="J257" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K257">
         <v>0.1428571428571428</v>
@@ -15893,25 +15893,25 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.003581020590868397</v>
+        <v>0.002100840336134454</v>
       </c>
       <c r="C258">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D258">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="E258">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="F258">
-        <v>0.07999999999999996</v>
+        <v>0.11</v>
       </c>
       <c r="G258" t="b">
         <v>1</v>
       </c>
       <c r="H258">
-        <v>1113</v>
+        <v>950</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>431</v>
@@ -15943,25 +15943,25 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.003436426116838488</v>
+        <v>0.00189753320683112</v>
       </c>
       <c r="C259">
         <v>1</v>
       </c>
       <c r="D259">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E259">
-        <v>0.67</v>
+        <v>0.95</v>
       </c>
       <c r="F259">
-        <v>0.33</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G259" t="b">
         <v>1</v>
       </c>
       <c r="H259">
-        <v>290</v>
+        <v>526</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>432</v>
@@ -15993,25 +15993,25 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>0.002100840336134454</v>
+        <v>0.0009900990099009901</v>
       </c>
       <c r="C260">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D260">
-        <v>18</v>
+        <v>174</v>
       </c>
       <c r="E260">
-        <v>0.89</v>
+        <v>0.98</v>
       </c>
       <c r="F260">
-        <v>0.11</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G260" t="b">
         <v>1</v>
       </c>
       <c r="H260">
-        <v>950</v>
+        <v>3027</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>433</v>
@@ -16039,30 +16039,6 @@
       </c>
     </row>
     <row r="261" spans="1:17">
-      <c r="A261" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B261">
-        <v>0.00189753320683112</v>
-      </c>
-      <c r="C261">
-        <v>1</v>
-      </c>
-      <c r="D261">
-        <v>19</v>
-      </c>
-      <c r="E261">
-        <v>0.95</v>
-      </c>
-      <c r="F261">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="G261" t="b">
-        <v>1</v>
-      </c>
-      <c r="H261">
-        <v>526</v>
-      </c>
       <c r="J261" s="1" t="s">
         <v>434</v>
       </c>
@@ -16089,30 +16065,6 @@
       </c>
     </row>
     <row r="262" spans="1:17">
-      <c r="A262" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B262">
-        <v>0.0009900990099009901</v>
-      </c>
-      <c r="C262">
-        <v>3</v>
-      </c>
-      <c r="D262">
-        <v>174</v>
-      </c>
-      <c r="E262">
-        <v>0.98</v>
-      </c>
-      <c r="F262">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="G262" t="b">
-        <v>1</v>
-      </c>
-      <c r="H262">
-        <v>3027</v>
-      </c>
       <c r="J262" s="1" t="s">
         <v>435</v>
       </c>
@@ -16478,7 +16430,7 @@
     </row>
     <row r="276" spans="10:17">
       <c r="J276" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K276">
         <v>0.1403508771929824</v>
@@ -16790,7 +16742,7 @@
     </row>
     <row r="288" spans="10:17">
       <c r="J288" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K288">
         <v>0.1333333333333333</v>
@@ -16894,7 +16846,7 @@
     </row>
     <row r="292" spans="10:17">
       <c r="J292" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K292">
         <v>0.1304347826086956</v>
@@ -16998,7 +16950,7 @@
     </row>
     <row r="296" spans="10:17">
       <c r="J296" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K296">
         <v>0.1259842519685039</v>
@@ -17024,7 +16976,7 @@
     </row>
     <row r="297" spans="10:17">
       <c r="J297" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K297">
         <v>0.1259259259259259</v>
@@ -17050,7 +17002,7 @@
     </row>
     <row r="298" spans="10:17">
       <c r="J298" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K298">
         <v>0.125</v>
@@ -18064,7 +18016,7 @@
     </row>
     <row r="337" spans="10:17">
       <c r="J337" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K337">
         <v>0.12</v>
@@ -18324,7 +18276,7 @@
     </row>
     <row r="347" spans="10:17">
       <c r="J347" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K347">
         <v>0.1117647058823529</v>
@@ -18766,7 +18718,7 @@
     </row>
     <row r="364" spans="10:17">
       <c r="J364" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K364">
         <v>0.1111111111111111</v>
@@ -19156,7 +19108,7 @@
     </row>
     <row r="379" spans="10:17">
       <c r="J379" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K379">
         <v>0.1029411764705882</v>
@@ -19988,7 +19940,7 @@
     </row>
     <row r="411" spans="10:17">
       <c r="J411" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K411">
         <v>0.09523809523809523</v>
@@ -20066,7 +20018,7 @@
     </row>
     <row r="414" spans="10:17">
       <c r="J414" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K414">
         <v>0.09375</v>
@@ -20170,7 +20122,7 @@
     </row>
     <row r="418" spans="10:17">
       <c r="J418" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K418">
         <v>0.09333333333333334</v>
@@ -20300,7 +20252,7 @@
     </row>
     <row r="423" spans="10:17">
       <c r="J423" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K423">
         <v>0.09090909090909091</v>
@@ -20326,7 +20278,7 @@
     </row>
     <row r="424" spans="10:17">
       <c r="J424" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K424">
         <v>0.09090909090909091</v>
@@ -20586,7 +20538,7 @@
     </row>
     <row r="434" spans="10:17">
       <c r="J434" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K434">
         <v>0.09090909090909091</v>
@@ -21652,7 +21604,7 @@
     </row>
     <row r="475" spans="10:17">
       <c r="J475" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K475">
         <v>0.08100558659217877</v>
@@ -21886,7 +21838,7 @@
     </row>
     <row r="484" spans="10:17">
       <c r="J484" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K484">
         <v>0.07692307692307693</v>
@@ -22120,7 +22072,7 @@
     </row>
     <row r="493" spans="10:17">
       <c r="J493" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K493">
         <v>0.075</v>
@@ -22250,7 +22202,7 @@
     </row>
     <row r="498" spans="10:17">
       <c r="J498" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K498">
         <v>0.072992700729927</v>
@@ -22926,7 +22878,7 @@
     </row>
     <row r="524" spans="10:17">
       <c r="J524" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K524">
         <v>0.06818181818181818</v>
@@ -23160,7 +23112,7 @@
     </row>
     <row r="533" spans="10:17">
       <c r="J533" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K533">
         <v>0.06666666666666667</v>
@@ -23342,7 +23294,7 @@
     </row>
     <row r="540" spans="10:17">
       <c r="J540" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K540">
         <v>0.06666666666666667</v>
@@ -23602,7 +23554,7 @@
     </row>
     <row r="550" spans="10:17">
       <c r="J550" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K550">
         <v>0.06382978723404255</v>
@@ -23654,7 +23606,7 @@
     </row>
     <row r="552" spans="10:17">
       <c r="J552" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K552">
         <v>0.0625</v>
@@ -23914,7 +23866,7 @@
     </row>
     <row r="562" spans="10:17">
       <c r="J562" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K562">
         <v>0.06122448979591837</v>
@@ -23992,7 +23944,7 @@
     </row>
     <row r="565" spans="10:17">
       <c r="J565" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K565">
         <v>0.05882352941176471</v>
@@ -24044,7 +23996,7 @@
     </row>
     <row r="567" spans="10:17">
       <c r="J567" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K567">
         <v>0.05882352941176471</v>
@@ -24616,7 +24568,7 @@
     </row>
     <row r="589" spans="10:17">
       <c r="J589" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K589">
         <v>0.05347091932457786</v>
@@ -24668,7 +24620,7 @@
     </row>
     <row r="591" spans="10:17">
       <c r="J591" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K591">
         <v>0.05263157894736842</v>
@@ -24798,7 +24750,7 @@
     </row>
     <row r="596" spans="10:17">
       <c r="J596" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K596">
         <v>0.05263157894736842</v>
@@ -25188,7 +25140,7 @@
     </row>
     <row r="611" spans="10:17">
       <c r="J611" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K611">
         <v>0.0493421052631579</v>
@@ -25656,7 +25608,7 @@
     </row>
     <row r="629" spans="10:17">
       <c r="J629" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K629">
         <v>0.04347826086956522</v>
@@ -25760,7 +25712,7 @@
     </row>
     <row r="633" spans="10:17">
       <c r="J633" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K633">
         <v>0.04347826086956522</v>
@@ -25916,7 +25868,7 @@
     </row>
     <row r="639" spans="10:17">
       <c r="J639" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K639">
         <v>0.04166666666666666</v>
@@ -26332,7 +26284,7 @@
     </row>
     <row r="655" spans="10:17">
       <c r="J655" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K655">
         <v>0.03802938634399308</v>
@@ -26462,7 +26414,7 @@
     </row>
     <row r="660" spans="10:17">
       <c r="J660" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K660">
         <v>0.03703703703703703</v>
@@ -26748,7 +26700,7 @@
     </row>
     <row r="671" spans="10:17">
       <c r="J671" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K671">
         <v>0.03571428571428571</v>
@@ -27086,7 +27038,7 @@
     </row>
     <row r="684" spans="10:17">
       <c r="J684" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K684">
         <v>0.03308823529411765</v>
@@ -27242,7 +27194,7 @@
     </row>
     <row r="690" spans="10:17">
       <c r="J690" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K690">
         <v>0.03191489361702127</v>
@@ -27476,7 +27428,7 @@
     </row>
     <row r="699" spans="10:17">
       <c r="J699" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K699">
         <v>0.0303030303030303</v>
@@ -27502,7 +27454,7 @@
     </row>
     <row r="700" spans="10:17">
       <c r="J700" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K700">
         <v>0.0303030303030303</v>
@@ -27658,7 +27610,7 @@
     </row>
     <row r="706" spans="10:17">
       <c r="J706" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K706">
         <v>0.02941176470588235</v>
@@ -28152,7 +28104,7 @@
     </row>
     <row r="725" spans="10:17">
       <c r="J725" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K725">
         <v>0.02564102564102564</v>
@@ -28256,7 +28208,7 @@
     </row>
     <row r="729" spans="10:17">
       <c r="J729" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K729">
         <v>0.02439024390243903</v>
@@ -28750,7 +28702,7 @@
     </row>
     <row r="748" spans="10:17">
       <c r="J748" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K748">
         <v>0.02</v>
@@ -28880,7 +28832,7 @@
     </row>
     <row r="753" spans="10:17">
       <c r="J753" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K753">
         <v>0.01869158878504673</v>
@@ -28958,7 +28910,7 @@
     </row>
     <row r="756" spans="10:17">
       <c r="J756" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K756">
         <v>0.01724137931034483</v>
@@ -29062,7 +29014,7 @@
     </row>
     <row r="760" spans="10:17">
       <c r="J760" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K760">
         <v>0.01656314699792961</v>
@@ -29374,7 +29326,7 @@
     </row>
     <row r="772" spans="10:17">
       <c r="J772" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K772">
         <v>0.01</v>
@@ -29504,7 +29456,7 @@
     </row>
     <row r="777" spans="10:17">
       <c r="J777" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K777">
         <v>0.00684931506849315</v>
@@ -29530,7 +29482,7 @@
     </row>
     <row r="778" spans="10:17">
       <c r="J778" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K778">
         <v>0.005319148936170213</v>
